--- a/input/公务员参公事业/9月所有员工扣款项.xlsx
+++ b/input/公务员参公事业/9月所有员工扣款项.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xumingyang/app/财政工资处理系统_部署包 2/input/公务员参公事业/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B390AF0E-76A9-9A4E-BBA4-B9EF7E6D60B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A8E264-3285-AA48-B187-699ACD22FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="38400" windowHeight="16840" xr2:uid="{2A0180E0-E346-E546-A62A-68118B708F34}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16840" xr2:uid="{2A0180E0-E346-E546-A62A-68118B708F34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>姓名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>李*1</t>
   </si>
@@ -95,10 +92,15 @@
     <t>个人所得税</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>其他补扣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业公务员参公扣款明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,6 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -177,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,343 +532,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA97361-AD8C-2349-A524-A48102F4E4BB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B4" sqref="B4:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1240.6400000000001</v>
-      </c>
-      <c r="C2">
-        <v>310.16000000000003</v>
-      </c>
-      <c r="D2">
-        <v>620.32000000000005</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>2503</v>
-      </c>
-      <c r="G2">
-        <v>385.29</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1185.92</v>
-      </c>
-      <c r="C3">
-        <v>296.48</v>
-      </c>
-      <c r="D3">
-        <v>592.96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>2421</v>
-      </c>
-      <c r="G3">
-        <v>26.81</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1060.48</v>
-      </c>
-      <c r="C4">
-        <v>265.12</v>
-      </c>
-      <c r="D4">
-        <v>530.24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>2274</v>
-      </c>
-      <c r="G4">
-        <v>67.84</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1240.6400000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>310.16000000000003</v>
+      </c>
+      <c r="D4" s="4">
+        <v>620.32000000000005</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2503</v>
+      </c>
+      <c r="G4" s="4">
+        <v>385.29</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1698.24</v>
-      </c>
-      <c r="C5">
-        <v>435.46</v>
-      </c>
-      <c r="D5">
-        <v>849.12</v>
-      </c>
-      <c r="F5">
-        <v>3566</v>
-      </c>
-      <c r="G5">
-        <v>966.61</v>
-      </c>
-      <c r="H5">
-        <v>365.8</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1185.92</v>
+      </c>
+      <c r="C5" s="4">
+        <v>296.48</v>
+      </c>
+      <c r="D5" s="4">
+        <v>592.96</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2421</v>
+      </c>
+      <c r="G5" s="4">
+        <v>26.81</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1212.1600000000001</v>
-      </c>
-      <c r="C6">
-        <v>303.04000000000002</v>
-      </c>
-      <c r="D6">
-        <v>606.08000000000004</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>2461</v>
-      </c>
-      <c r="G6">
-        <v>48.32</v>
-      </c>
-      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1060.48</v>
+      </c>
+      <c r="C6" s="4">
+        <v>265.12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>530.24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2274</v>
+      </c>
+      <c r="G6" s="4">
+        <v>67.84</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1074.96</v>
-      </c>
-      <c r="C7">
-        <v>268.74</v>
-      </c>
-      <c r="D7">
-        <v>537.48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>2108</v>
-      </c>
-      <c r="G7">
-        <v>102</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1698.24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>435.46</v>
+      </c>
+      <c r="D7" s="4">
+        <v>849.12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3566</v>
+      </c>
+      <c r="G7" s="4">
+        <v>966.61</v>
+      </c>
+      <c r="H7" s="4">
+        <v>365.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1029.92</v>
-      </c>
-      <c r="C8">
-        <v>257.48</v>
-      </c>
-      <c r="D8">
-        <v>514.96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>2044</v>
-      </c>
-      <c r="G8">
-        <v>65.78</v>
-      </c>
-      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1212.1600000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>303.04000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>606.08000000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2461</v>
+      </c>
+      <c r="G8" s="4">
+        <v>48.32</v>
+      </c>
+      <c r="H8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>747.52</v>
-      </c>
-      <c r="C9">
-        <v>186.88</v>
-      </c>
-      <c r="D9">
-        <v>373.76</v>
-      </c>
-      <c r="F9">
-        <v>1122</v>
-      </c>
-      <c r="G9">
-        <v>53.93</v>
-      </c>
-      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1074.96</v>
+      </c>
+      <c r="C9" s="4">
+        <v>268.74</v>
+      </c>
+      <c r="D9" s="4">
+        <v>537.48</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2108</v>
+      </c>
+      <c r="G9" s="4">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1052.8</v>
-      </c>
-      <c r="C10">
-        <v>263.2</v>
-      </c>
-      <c r="D10">
-        <v>526.4</v>
-      </c>
-      <c r="E10">
-        <v>52.64</v>
-      </c>
-      <c r="F10">
-        <v>2322</v>
-      </c>
-      <c r="G10">
-        <v>70.680000000000007</v>
-      </c>
-      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1029.92</v>
+      </c>
+      <c r="C10" s="4">
+        <v>257.48</v>
+      </c>
+      <c r="D10" s="4">
+        <v>514.96</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2044</v>
+      </c>
+      <c r="G10" s="4">
+        <v>65.78</v>
+      </c>
+      <c r="H10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1031.5999999999999</v>
-      </c>
-      <c r="C11">
-        <v>257.89999999999998</v>
-      </c>
-      <c r="D11">
-        <v>515.79999999999995</v>
-      </c>
-      <c r="E11">
-        <v>51.58</v>
-      </c>
-      <c r="F11">
-        <v>2109</v>
-      </c>
-      <c r="G11">
-        <v>62.7</v>
-      </c>
-      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>747.52</v>
+      </c>
+      <c r="C11" s="4">
+        <v>186.88</v>
+      </c>
+      <c r="D11" s="4">
+        <v>373.76</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1122</v>
+      </c>
+      <c r="G11" s="4">
+        <v>53.93</v>
+      </c>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>747.52</v>
-      </c>
-      <c r="C12">
-        <v>186.88</v>
-      </c>
-      <c r="D12">
-        <v>373.76</v>
-      </c>
-      <c r="E12">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="F12">
-        <v>1122</v>
-      </c>
-      <c r="G12">
-        <v>7.81</v>
-      </c>
-      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1052.8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>263.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>526.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>52.64</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2322</v>
+      </c>
+      <c r="G12" s="4">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="H12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1031.5999999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>51.58</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2109</v>
+      </c>
+      <c r="G13" s="4">
+        <v>62.7</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
         <v>747.52</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="4">
         <v>186.88</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="4">
         <v>373.76</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="4">
         <v>37.380000000000003</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="4">
         <v>1122</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G14" s="4">
+        <v>7.81</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>747.52</v>
+      </c>
+      <c r="C15" s="4">
+        <v>186.88</v>
+      </c>
+      <c r="D15" s="4">
+        <v>373.76</v>
+      </c>
+      <c r="E15" s="4">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1122</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>4935.08</v>
       </c>
     </row>
